--- a/lib/openstudio-standards/btap/led_lighting_data_necb2011.xlsx
+++ b/lib/openstudio-standards/btap/led_lighting_data_necb2011.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\NRCan\BTAP\ECM\LEDlighting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1EF67F-8502-4A7F-8F14-A6FB5DD36B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38114CA7-7C97-4912-9F87-E4B1136900FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F9A6CD97-86A5-4D91-8748-0B0F92ACECA0}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="lighting_sets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lighting_sets!$B$1:$H$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lighting_sets!$B$1:$G$226</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="234">
   <si>
     <t>building_type</t>
   </si>
@@ -734,13 +734,10 @@
     <t>Transp. - seating</t>
   </si>
   <si>
-    <t>lighting_per_area_w_per_m2</t>
-  </si>
-  <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>necb2011</t>
+    <t>lighting_standard</t>
+  </si>
+  <si>
+    <t>NECB2011</t>
   </si>
 </sst>
 </file>
@@ -817,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -842,9 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1180,29 +1174,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AA2CBF-B193-4B6C-9D8C-728BAA4CC50F}">
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="16" style="4" customWidth="1"/>
     <col min="2" max="2" width="47.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="83.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="43.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1210,25 +1203,22 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>232</v>
+      <c r="D1" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H1" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>234</v>
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1236,26 +1226,22 @@
       <c r="C2" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="7">
-        <v>10</v>
-      </c>
-      <c r="E2" s="10">
-        <f>D2*0.092903</f>
-        <v>0.92903000000000002</v>
+      <c r="D2" s="9">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
       </c>
       <c r="F2" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G2" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>213</v>
@@ -1263,26 +1249,22 @@
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11">
-        <f>D3*0.092903</f>
-        <v>0.92903000000000002</v>
+      <c r="D3" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G3" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -1290,26 +1272,22 @@
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="11">
-        <f t="shared" ref="E4:E67" si="0">D4*0.092903</f>
-        <v>0.92903000000000002</v>
+      <c r="D4" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G4" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -1317,26 +1295,22 @@
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D5" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G5" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -1344,26 +1318,22 @@
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4">
-        <v>10</v>
-      </c>
-      <c r="E6" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D6" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G6" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -1371,26 +1341,22 @@
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="4">
-        <v>10</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D7" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G7" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
@@ -1398,26 +1364,22 @@
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D8" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G8" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -1425,26 +1387,22 @@
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="4">
-        <v>10</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D9" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G9" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>214</v>
@@ -1452,26 +1410,22 @@
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4">
-        <v>10</v>
-      </c>
-      <c r="E10" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D10" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
       </c>
       <c r="F10" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G10" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>215</v>
@@ -1479,26 +1433,22 @@
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="4">
-        <v>10</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D11" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G11" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
@@ -1506,26 +1456,22 @@
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="4">
-        <v>10</v>
-      </c>
-      <c r="E12" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D12" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
       </c>
       <c r="F12" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G12" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -1533,26 +1479,22 @@
       <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="4">
-        <v>10</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D13" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
       </c>
       <c r="F13" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G13" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>11</v>
@@ -1560,26 +1502,22 @@
       <c r="C14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="4">
-        <v>10</v>
-      </c>
-      <c r="E14" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D14" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
       </c>
       <c r="F14" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G14" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
@@ -1587,26 +1525,22 @@
       <c r="C15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="4">
-        <v>10</v>
-      </c>
-      <c r="E15" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D15" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
       </c>
       <c r="F15" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G15" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -1614,26 +1548,22 @@
       <c r="C16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="4">
-        <v>10</v>
-      </c>
-      <c r="E16" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D16" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G16" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>216</v>
@@ -1641,26 +1571,22 @@
       <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="4">
-        <v>10</v>
-      </c>
-      <c r="E17" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D17" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
       </c>
       <c r="F17" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G17" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>14</v>
@@ -1668,26 +1594,22 @@
       <c r="C18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="4">
-        <v>10</v>
-      </c>
-      <c r="E18" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D18" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
       </c>
       <c r="F18" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G18" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>217</v>
@@ -1695,26 +1617,22 @@
       <c r="C19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="4">
-        <v>10</v>
-      </c>
-      <c r="E19" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D19" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
       </c>
       <c r="F19" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G19" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -1722,26 +1640,22 @@
       <c r="C20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="4">
-        <v>10</v>
-      </c>
-      <c r="E20" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D20" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
       </c>
       <c r="F20" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G20" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>16</v>
@@ -1749,26 +1663,22 @@
       <c r="C21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="4">
-        <v>10</v>
-      </c>
-      <c r="E21" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D21" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
       </c>
       <c r="F21" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G21" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>17</v>
@@ -1776,26 +1686,22 @@
       <c r="C22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="4">
-        <v>10</v>
-      </c>
-      <c r="E22" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D22" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
       </c>
       <c r="F22" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G22" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>227</v>
@@ -1803,26 +1709,22 @@
       <c r="C23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="4">
-        <v>10</v>
-      </c>
-      <c r="E23" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D23" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
       </c>
       <c r="F23" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G23" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>18</v>
@@ -1830,26 +1732,22 @@
       <c r="C24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="4">
-        <v>10</v>
-      </c>
-      <c r="E24" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D24" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
       </c>
       <c r="F24" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G24" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -1857,26 +1755,22 @@
       <c r="C25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="4">
-        <v>10</v>
-      </c>
-      <c r="E25" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D25" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
       </c>
       <c r="F25" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G25" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>218</v>
@@ -1884,26 +1778,22 @@
       <c r="C26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="4">
-        <v>10</v>
-      </c>
-      <c r="E26" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D26" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
       </c>
       <c r="F26" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G26" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H26" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>20</v>
@@ -1911,26 +1801,22 @@
       <c r="C27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="4">
-        <v>10</v>
-      </c>
-      <c r="E27" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D27" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
       </c>
       <c r="F27" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G27" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>21</v>
@@ -1938,26 +1824,22 @@
       <c r="C28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="4">
-        <v>10</v>
-      </c>
-      <c r="E28" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D28" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
       </c>
       <c r="F28" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G28" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>22</v>
@@ -1965,26 +1847,22 @@
       <c r="C29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="4">
-        <v>10</v>
-      </c>
-      <c r="E29" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D29" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
       </c>
       <c r="F29" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G29" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>219</v>
@@ -1992,26 +1870,22 @@
       <c r="C30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="4">
-        <v>10</v>
-      </c>
-      <c r="E30" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D30" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
       </c>
       <c r="F30" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G30" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>220</v>
@@ -2019,26 +1893,22 @@
       <c r="C31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="4">
-        <v>10</v>
-      </c>
-      <c r="E31" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D31" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
       </c>
       <c r="F31" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G31" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>221</v>
@@ -2046,26 +1916,22 @@
       <c r="C32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="4">
-        <v>10</v>
-      </c>
-      <c r="E32" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D32" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
       </c>
       <c r="F32" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G32" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>23</v>
@@ -2073,26 +1939,22 @@
       <c r="C33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="4">
-        <v>10</v>
-      </c>
-      <c r="E33" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D33" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
       </c>
       <c r="F33" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G33" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>24</v>
@@ -2100,26 +1962,22 @@
       <c r="C34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="4">
-        <v>10</v>
-      </c>
-      <c r="E34" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D34" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
       </c>
       <c r="F34" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G34" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>25</v>
@@ -2127,26 +1985,22 @@
       <c r="C35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="4">
-        <v>10</v>
-      </c>
-      <c r="E35" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D35" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
       </c>
       <c r="F35" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G35" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H35" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>26</v>
@@ -2154,26 +2008,22 @@
       <c r="C36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="4">
-        <v>10</v>
-      </c>
-      <c r="E36" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D36" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
       </c>
       <c r="F36" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G36" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H36" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>27</v>
@@ -2181,26 +2031,22 @@
       <c r="C37" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="4">
-        <v>10</v>
-      </c>
-      <c r="E37" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D37" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
       </c>
       <c r="F37" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G37" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H37" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>27</v>
@@ -2208,26 +2054,22 @@
       <c r="C38" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="4">
-        <v>10</v>
-      </c>
-      <c r="E38" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D38" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
       </c>
       <c r="F38" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G38" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H38" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>27</v>
@@ -2235,26 +2077,22 @@
       <c r="C39" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="4">
-        <v>10</v>
-      </c>
-      <c r="E39" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D39" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
       </c>
       <c r="F39" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G39" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H39" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>27</v>
@@ -2262,26 +2100,22 @@
       <c r="C40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="4">
-        <v>10</v>
-      </c>
-      <c r="E40" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D40" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
       </c>
       <c r="F40" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G40" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>27</v>
@@ -2289,26 +2123,22 @@
       <c r="C41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="4">
-        <v>10</v>
-      </c>
-      <c r="E41" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D41" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
       </c>
       <c r="F41" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G41" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H41" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>27</v>
@@ -2316,26 +2146,22 @@
       <c r="C42" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="4">
-        <v>10</v>
-      </c>
-      <c r="E42" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D42" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
       </c>
       <c r="F42" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G42" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H42" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>27</v>
@@ -2343,26 +2169,22 @@
       <c r="C43" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="4">
-        <v>10</v>
-      </c>
-      <c r="E43" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D43" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
       </c>
       <c r="F43" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G43" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H43" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>27</v>
@@ -2370,26 +2192,22 @@
       <c r="C44" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="4">
-        <v>10</v>
-      </c>
-      <c r="E44" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D44" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
       </c>
       <c r="F44" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G44" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H44" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>27</v>
@@ -2397,26 +2215,22 @@
       <c r="C45" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="4">
-        <v>10</v>
-      </c>
-      <c r="E45" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D45" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
       </c>
       <c r="F45" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G45" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H45" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>27</v>
@@ -2424,26 +2238,22 @@
       <c r="C46" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="4">
-        <v>10</v>
-      </c>
-      <c r="E46" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D46" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
       </c>
       <c r="F46" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G46" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>27</v>
@@ -2451,26 +2261,22 @@
       <c r="C47" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="4">
-        <v>10</v>
-      </c>
-      <c r="E47" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D47" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
       </c>
       <c r="F47" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G47" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H47" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>27</v>
@@ -2478,26 +2284,22 @@
       <c r="C48" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="4">
-        <v>10</v>
-      </c>
-      <c r="E48" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D48" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
       </c>
       <c r="F48" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G48" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H48" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>27</v>
@@ -2505,26 +2307,22 @@
       <c r="C49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="4">
-        <v>10</v>
-      </c>
-      <c r="E49" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D49" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
       </c>
       <c r="F49" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G49" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H49" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>27</v>
@@ -2532,26 +2330,22 @@
       <c r="C50" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="4">
-        <v>10</v>
-      </c>
-      <c r="E50" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D50" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
       </c>
       <c r="F50" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G50" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H50" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>27</v>
@@ -2559,26 +2353,22 @@
       <c r="C51" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="4">
-        <v>10</v>
-      </c>
-      <c r="E51" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D51" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
       </c>
       <c r="F51" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G51" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H51" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>27</v>
@@ -2586,26 +2376,22 @@
       <c r="C52" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="4">
-        <v>10</v>
-      </c>
-      <c r="E52" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D52" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
       </c>
       <c r="F52" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G52" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H52" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>27</v>
@@ -2613,26 +2399,22 @@
       <c r="C53" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="4">
-        <v>10</v>
-      </c>
-      <c r="E53" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D53" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
       </c>
       <c r="F53" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G53" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H53" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>27</v>
@@ -2640,26 +2422,22 @@
       <c r="C54" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="4">
-        <v>10</v>
-      </c>
-      <c r="E54" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D54" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
       </c>
       <c r="F54" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G54" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H54" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>27</v>
@@ -2667,26 +2445,22 @@
       <c r="C55" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="4">
-        <v>10</v>
-      </c>
-      <c r="E55" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D55" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
       </c>
       <c r="F55" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G55" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H55" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>27</v>
@@ -2694,26 +2468,22 @@
       <c r="C56" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="4">
-        <v>10</v>
-      </c>
-      <c r="E56" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D56" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
       </c>
       <c r="F56" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G56" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H56" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>27</v>
@@ -2721,26 +2491,22 @@
       <c r="C57" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="4">
-        <v>10</v>
-      </c>
-      <c r="E57" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D57" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
       </c>
       <c r="F57" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G57" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H57" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>27</v>
@@ -2748,26 +2514,22 @@
       <c r="C58" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="4">
-        <v>10</v>
-      </c>
-      <c r="E58" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D58" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
       </c>
       <c r="F58" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G58" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H58" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>27</v>
@@ -2775,26 +2537,22 @@
       <c r="C59" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D59" s="4">
-        <v>10</v>
-      </c>
-      <c r="E59" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D59" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
       </c>
       <c r="F59" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G59" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H59" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>27</v>
@@ -2802,26 +2560,22 @@
       <c r="C60" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="4">
-        <v>10</v>
-      </c>
-      <c r="E60" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D60" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
       </c>
       <c r="F60" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G60" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H60" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>27</v>
@@ -2829,26 +2583,22 @@
       <c r="C61" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="4">
-        <v>10</v>
-      </c>
-      <c r="E61" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D61" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
       </c>
       <c r="F61" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G61" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H61" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>27</v>
@@ -2856,26 +2606,22 @@
       <c r="C62" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="4">
-        <v>10</v>
-      </c>
-      <c r="E62" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D62" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
       </c>
       <c r="F62" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G62" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H62" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>27</v>
@@ -2883,26 +2629,22 @@
       <c r="C63" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="4">
-        <v>10</v>
-      </c>
-      <c r="E63" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D63" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
       </c>
       <c r="F63" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G63" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H63" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>27</v>
@@ -2910,26 +2652,22 @@
       <c r="C64" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="4">
-        <v>10</v>
-      </c>
-      <c r="E64" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D64" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
       </c>
       <c r="F64" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G64" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H64" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>27</v>
@@ -2937,26 +2675,22 @@
       <c r="C65" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="4">
-        <v>10</v>
-      </c>
-      <c r="E65" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D65" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
       </c>
       <c r="F65" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G65" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H65" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>27</v>
@@ -2964,26 +2698,22 @@
       <c r="C66" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D66" s="4">
-        <v>10</v>
-      </c>
-      <c r="E66" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D66" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
       </c>
       <c r="F66" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G66" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H66" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>27</v>
@@ -2991,26 +2721,22 @@
       <c r="C67" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="4">
-        <v>10</v>
-      </c>
-      <c r="E67" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92903000000000002</v>
+      <c r="D67" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0</v>
       </c>
       <c r="F67" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G67" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H67" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>27</v>
@@ -3018,26 +2744,22 @@
       <c r="C68" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D68" s="4">
-        <v>10</v>
-      </c>
-      <c r="E68" s="11">
-        <f t="shared" ref="E68:E131" si="1">D68*0.092903</f>
-        <v>0.92903000000000002</v>
+      <c r="D68" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
       </c>
       <c r="F68" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G68" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H68" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>27</v>
@@ -3045,26 +2767,22 @@
       <c r="C69" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="4">
-        <v>10</v>
-      </c>
-      <c r="E69" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D69" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
       </c>
       <c r="F69" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G69" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H69" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>27</v>
@@ -3072,26 +2790,22 @@
       <c r="C70" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D70" s="4">
-        <v>10</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D70" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0</v>
       </c>
       <c r="F70" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G70" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H70" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>27</v>
@@ -3099,26 +2813,22 @@
       <c r="C71" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="4">
-        <v>10</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D71" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0</v>
       </c>
       <c r="F71" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G71" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H71" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>27</v>
@@ -3126,26 +2836,22 @@
       <c r="C72" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="4">
-        <v>10</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D72" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0</v>
       </c>
       <c r="F72" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G72" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H72" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>27</v>
@@ -3153,26 +2859,22 @@
       <c r="C73" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="4">
-        <v>10</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D73" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
       </c>
       <c r="F73" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G73" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H73" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>27</v>
@@ -3180,26 +2882,22 @@
       <c r="C74" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D74" s="4">
-        <v>10</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D74" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0</v>
       </c>
       <c r="F74" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G74" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H74" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>27</v>
@@ -3207,26 +2905,22 @@
       <c r="C75" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D75" s="4">
-        <v>10</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D75" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
       </c>
       <c r="F75" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G75" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H75" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>27</v>
@@ -3234,26 +2928,22 @@
       <c r="C76" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D76" s="4">
-        <v>10</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D76" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0</v>
       </c>
       <c r="F76" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G76" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H76" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>27</v>
@@ -3261,26 +2951,22 @@
       <c r="C77" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D77" s="4">
-        <v>10</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D77" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0</v>
       </c>
       <c r="F77" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G77" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H77" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>27</v>
@@ -3288,26 +2974,22 @@
       <c r="C78" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D78" s="4">
-        <v>10</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D78" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0</v>
       </c>
       <c r="F78" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G78" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H78" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>27</v>
@@ -3315,26 +2997,22 @@
       <c r="C79" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="4">
-        <v>10</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D79" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0</v>
       </c>
       <c r="F79" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G79" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H79" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>27</v>
@@ -3342,26 +3020,22 @@
       <c r="C80" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D80" s="4">
-        <v>10</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D80" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0</v>
       </c>
       <c r="F80" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G80" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H80" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>27</v>
@@ -3369,26 +3043,22 @@
       <c r="C81" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D81" s="4">
-        <v>10</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D81" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0</v>
       </c>
       <c r="F81" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G81" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H81" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>27</v>
@@ -3396,26 +3066,22 @@
       <c r="C82" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D82" s="4">
-        <v>10</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D82" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0</v>
       </c>
       <c r="F82" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G82" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H82" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>27</v>
@@ -3423,26 +3089,22 @@
       <c r="C83" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D83" s="4">
-        <v>10</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D83" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0</v>
       </c>
       <c r="F83" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G83" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H83" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>27</v>
@@ -3450,26 +3112,22 @@
       <c r="C84" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D84" s="4">
-        <v>10</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D84" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0</v>
       </c>
       <c r="F84" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G84" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H84" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>27</v>
@@ -3477,26 +3135,22 @@
       <c r="C85" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="4">
-        <v>10</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D85" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0</v>
       </c>
       <c r="F85" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G85" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H85" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>27</v>
@@ -3504,26 +3158,22 @@
       <c r="C86" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="4">
-        <v>10</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D86" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0</v>
       </c>
       <c r="F86" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G86" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H86" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>27</v>
@@ -3531,26 +3181,22 @@
       <c r="C87" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D87" s="4">
-        <v>10</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D87" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0</v>
       </c>
       <c r="F87" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G87" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H87" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>27</v>
@@ -3558,26 +3204,22 @@
       <c r="C88" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D88" s="4">
-        <v>10</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D88" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0</v>
       </c>
       <c r="F88" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G88" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H88" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>27</v>
@@ -3585,26 +3227,22 @@
       <c r="C89" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D89" s="4">
-        <v>10</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D89" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0</v>
       </c>
       <c r="F89" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G89" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H89" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>27</v>
@@ -3612,26 +3250,22 @@
       <c r="C90" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D90" s="4">
-        <v>10</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D90" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0</v>
       </c>
       <c r="F90" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G90" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H90" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>27</v>
@@ -3639,26 +3273,22 @@
       <c r="C91" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D91" s="4">
-        <v>10</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D91" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0</v>
       </c>
       <c r="F91" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G91" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H91" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>27</v>
@@ -3666,26 +3296,22 @@
       <c r="C92" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D92" s="4">
-        <v>10</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D92" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0</v>
       </c>
       <c r="F92" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G92" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H92" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>27</v>
@@ -3693,26 +3319,22 @@
       <c r="C93" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="4">
-        <v>10</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D93" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0</v>
       </c>
       <c r="F93" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G93" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H93" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>27</v>
@@ -3720,26 +3342,22 @@
       <c r="C94" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D94" s="4">
-        <v>10</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D94" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0</v>
       </c>
       <c r="F94" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G94" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H94" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>27</v>
@@ -3747,26 +3365,22 @@
       <c r="C95" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D95" s="4">
-        <v>10</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D95" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E95" s="5">
+        <v>0</v>
       </c>
       <c r="F95" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G95" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H95" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>27</v>
@@ -3774,26 +3388,22 @@
       <c r="C96" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D96" s="4">
-        <v>10</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D96" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E96" s="5">
+        <v>0</v>
       </c>
       <c r="F96" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G96" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H96" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>27</v>
@@ -3801,26 +3411,22 @@
       <c r="C97" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D97" s="4">
-        <v>10</v>
-      </c>
-      <c r="E97" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D97" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0</v>
       </c>
       <c r="F97" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G97" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H97" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>27</v>
@@ -3828,26 +3434,22 @@
       <c r="C98" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D98" s="4">
-        <v>10</v>
-      </c>
-      <c r="E98" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D98" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E98" s="5">
+        <v>0</v>
       </c>
       <c r="F98" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G98" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H98" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>27</v>
@@ -3855,26 +3457,22 @@
       <c r="C99" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D99" s="4">
-        <v>10</v>
-      </c>
-      <c r="E99" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D99" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0</v>
       </c>
       <c r="F99" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G99" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H99" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>27</v>
@@ -3882,26 +3480,22 @@
       <c r="C100" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D100" s="4">
-        <v>10</v>
-      </c>
-      <c r="E100" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D100" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E100" s="5">
+        <v>0</v>
       </c>
       <c r="F100" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G100" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H100" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>27</v>
@@ -3909,26 +3503,22 @@
       <c r="C101" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D101" s="4">
-        <v>10</v>
-      </c>
-      <c r="E101" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D101" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E101" s="5">
+        <v>0</v>
       </c>
       <c r="F101" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G101" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H101" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>27</v>
@@ -3936,26 +3526,22 @@
       <c r="C102" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D102" s="4">
-        <v>10</v>
-      </c>
-      <c r="E102" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D102" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E102" s="5">
+        <v>0</v>
       </c>
       <c r="F102" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G102" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H102" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>27</v>
@@ -3963,26 +3549,22 @@
       <c r="C103" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D103" s="4">
-        <v>10</v>
-      </c>
-      <c r="E103" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D103" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E103" s="5">
+        <v>0</v>
       </c>
       <c r="F103" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G103" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H103" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>27</v>
@@ -3990,26 +3572,22 @@
       <c r="C104" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D104" s="4">
-        <v>10</v>
-      </c>
-      <c r="E104" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D104" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0</v>
       </c>
       <c r="F104" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G104" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H104" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>27</v>
@@ -4017,26 +3595,22 @@
       <c r="C105" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D105" s="4">
-        <v>10</v>
-      </c>
-      <c r="E105" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D105" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E105" s="5">
+        <v>0</v>
       </c>
       <c r="F105" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G105" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H105" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>27</v>
@@ -4044,26 +3618,22 @@
       <c r="C106" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D106" s="4">
-        <v>10</v>
-      </c>
-      <c r="E106" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D106" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E106" s="5">
+        <v>0</v>
       </c>
       <c r="F106" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G106" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H106" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>27</v>
@@ -4071,26 +3641,22 @@
       <c r="C107" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D107" s="4">
-        <v>10</v>
-      </c>
-      <c r="E107" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D107" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E107" s="5">
+        <v>0</v>
       </c>
       <c r="F107" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G107" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H107" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>27</v>
@@ -4098,26 +3664,22 @@
       <c r="C108" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D108" s="4">
-        <v>10</v>
-      </c>
-      <c r="E108" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D108" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E108" s="5">
+        <v>0</v>
       </c>
       <c r="F108" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G108" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H108" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>27</v>
@@ -4125,26 +3687,22 @@
       <c r="C109" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D109" s="4">
-        <v>10</v>
-      </c>
-      <c r="E109" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D109" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E109" s="5">
+        <v>0</v>
       </c>
       <c r="F109" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G109" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H109" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>27</v>
@@ -4152,26 +3710,22 @@
       <c r="C110" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D110" s="4">
-        <v>10</v>
-      </c>
-      <c r="E110" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D110" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0</v>
       </c>
       <c r="F110" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G110" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H110" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>27</v>
@@ -4179,26 +3733,22 @@
       <c r="C111" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D111" s="4">
-        <v>10</v>
-      </c>
-      <c r="E111" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D111" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E111" s="5">
+        <v>0</v>
       </c>
       <c r="F111" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G111" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H111" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>27</v>
@@ -4206,26 +3756,22 @@
       <c r="C112" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D112" s="4">
-        <v>10</v>
-      </c>
-      <c r="E112" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D112" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E112" s="5">
+        <v>0</v>
       </c>
       <c r="F112" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G112" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H112" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>27</v>
@@ -4233,26 +3779,22 @@
       <c r="C113" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D113" s="4">
-        <v>10</v>
-      </c>
-      <c r="E113" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D113" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E113" s="5">
+        <v>0</v>
       </c>
       <c r="F113" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G113" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H113" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>27</v>
@@ -4260,26 +3802,22 @@
       <c r="C114" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D114" s="4">
-        <v>10</v>
-      </c>
-      <c r="E114" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D114" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E114" s="5">
+        <v>0</v>
       </c>
       <c r="F114" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G114" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H114" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>27</v>
@@ -4287,26 +3825,22 @@
       <c r="C115" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D115" s="4">
-        <v>10</v>
-      </c>
-      <c r="E115" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D115" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E115" s="5">
+        <v>0</v>
       </c>
       <c r="F115" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G115" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H115" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>27</v>
@@ -4314,26 +3848,22 @@
       <c r="C116" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D116" s="4">
-        <v>10</v>
-      </c>
-      <c r="E116" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D116" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E116" s="5">
+        <v>0</v>
       </c>
       <c r="F116" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G116" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H116" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>27</v>
@@ -4341,26 +3871,22 @@
       <c r="C117" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D117" s="4">
-        <v>10</v>
-      </c>
-      <c r="E117" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D117" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E117" s="5">
+        <v>0</v>
       </c>
       <c r="F117" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G117" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H117" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>27</v>
@@ -4368,26 +3894,22 @@
       <c r="C118" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D118" s="4">
-        <v>10</v>
-      </c>
-      <c r="E118" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D118" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E118" s="5">
+        <v>0</v>
       </c>
       <c r="F118" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G118" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H118" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>27</v>
@@ -4395,26 +3917,22 @@
       <c r="C119" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D119" s="4">
-        <v>10</v>
-      </c>
-      <c r="E119" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D119" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E119" s="5">
+        <v>0</v>
       </c>
       <c r="F119" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G119" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H119" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>27</v>
@@ -4422,26 +3940,22 @@
       <c r="C120" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D120" s="4">
-        <v>10</v>
-      </c>
-      <c r="E120" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D120" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E120" s="5">
+        <v>0</v>
       </c>
       <c r="F120" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G120" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H120" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>27</v>
@@ -4449,26 +3963,22 @@
       <c r="C121" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D121" s="4">
-        <v>10</v>
-      </c>
-      <c r="E121" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D121" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E121" s="5">
+        <v>0</v>
       </c>
       <c r="F121" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G121" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H121" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>27</v>
@@ -4476,26 +3986,22 @@
       <c r="C122" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D122" s="4">
-        <v>10</v>
-      </c>
-      <c r="E122" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D122" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E122" s="5">
+        <v>0</v>
       </c>
       <c r="F122" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G122" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H122" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>27</v>
@@ -4503,26 +4009,22 @@
       <c r="C123" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D123" s="4">
-        <v>10</v>
-      </c>
-      <c r="E123" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D123" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E123" s="5">
+        <v>0</v>
       </c>
       <c r="F123" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G123" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H123" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>27</v>
@@ -4530,26 +4032,22 @@
       <c r="C124" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D124" s="4">
-        <v>10</v>
-      </c>
-      <c r="E124" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D124" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E124" s="5">
+        <v>0</v>
       </c>
       <c r="F124" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G124" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H124" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>27</v>
@@ -4557,26 +4055,22 @@
       <c r="C125" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D125" s="4">
-        <v>10</v>
-      </c>
-      <c r="E125" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D125" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0</v>
       </c>
       <c r="F125" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G125" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H125" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>27</v>
@@ -4584,26 +4078,22 @@
       <c r="C126" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D126" s="4">
-        <v>10</v>
-      </c>
-      <c r="E126" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D126" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E126" s="5">
+        <v>0</v>
       </c>
       <c r="F126" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G126" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H126" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>27</v>
@@ -4611,26 +4101,22 @@
       <c r="C127" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D127" s="4">
-        <v>10</v>
-      </c>
-      <c r="E127" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D127" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E127" s="5">
+        <v>0</v>
       </c>
       <c r="F127" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G127" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H127" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>27</v>
@@ -4638,26 +4124,22 @@
       <c r="C128" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D128" s="4">
-        <v>10</v>
-      </c>
-      <c r="E128" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D128" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E128" s="5">
+        <v>0</v>
       </c>
       <c r="F128" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G128" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H128" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>27</v>
@@ -4665,26 +4147,22 @@
       <c r="C129" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D129" s="4">
-        <v>10</v>
-      </c>
-      <c r="E129" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D129" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E129" s="5">
+        <v>0</v>
       </c>
       <c r="F129" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G129" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H129" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>27</v>
@@ -4692,26 +4170,22 @@
       <c r="C130" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D130" s="4">
-        <v>10</v>
-      </c>
-      <c r="E130" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D130" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E130" s="5">
+        <v>0</v>
       </c>
       <c r="F130" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G130" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H130" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>27</v>
@@ -4719,26 +4193,22 @@
       <c r="C131" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D131" s="4">
-        <v>10</v>
-      </c>
-      <c r="E131" s="11">
-        <f t="shared" si="1"/>
-        <v>0.92903000000000002</v>
+      <c r="D131" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E131" s="5">
+        <v>0</v>
       </c>
       <c r="F131" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G131" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H131" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>27</v>
@@ -4746,26 +4216,22 @@
       <c r="C132" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D132" s="4">
-        <v>10</v>
-      </c>
-      <c r="E132" s="11">
-        <f t="shared" ref="E132:E195" si="2">D132*0.092903</f>
-        <v>0.92903000000000002</v>
+      <c r="D132" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E132" s="5">
+        <v>0</v>
       </c>
       <c r="F132" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G132" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H132" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>27</v>
@@ -4773,26 +4239,22 @@
       <c r="C133" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D133" s="4">
-        <v>10</v>
-      </c>
-      <c r="E133" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D133" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E133" s="5">
+        <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G133" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H133" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>27</v>
@@ -4800,26 +4262,22 @@
       <c r="C134" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D134" s="4">
-        <v>10</v>
-      </c>
-      <c r="E134" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D134" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E134" s="5">
+        <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G134" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H134" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>27</v>
@@ -4827,26 +4285,22 @@
       <c r="C135" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D135" s="4">
-        <v>10</v>
-      </c>
-      <c r="E135" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D135" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E135" s="5">
+        <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G135" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H135" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>27</v>
@@ -4854,26 +4308,22 @@
       <c r="C136" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D136" s="4">
-        <v>10</v>
-      </c>
-      <c r="E136" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D136" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E136" s="5">
+        <v>0</v>
       </c>
       <c r="F136" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G136" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H136" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>27</v>
@@ -4881,26 +4331,22 @@
       <c r="C137" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D137" s="4">
-        <v>10</v>
-      </c>
-      <c r="E137" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D137" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E137" s="5">
+        <v>0</v>
       </c>
       <c r="F137" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G137" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H137" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>27</v>
@@ -4908,26 +4354,22 @@
       <c r="C138" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D138" s="4">
-        <v>10</v>
-      </c>
-      <c r="E138" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D138" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E138" s="5">
+        <v>0</v>
       </c>
       <c r="F138" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G138" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H138" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>27</v>
@@ -4935,26 +4377,22 @@
       <c r="C139" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D139" s="4">
-        <v>10</v>
-      </c>
-      <c r="E139" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D139" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E139" s="5">
+        <v>0</v>
       </c>
       <c r="F139" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G139" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H139" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>27</v>
@@ -4962,26 +4400,22 @@
       <c r="C140" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D140" s="4">
-        <v>10</v>
-      </c>
-      <c r="E140" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D140" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E140" s="5">
+        <v>0</v>
       </c>
       <c r="F140" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G140" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H140" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>27</v>
@@ -4989,26 +4423,22 @@
       <c r="C141" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D141" s="4">
-        <v>10</v>
-      </c>
-      <c r="E141" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D141" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E141" s="5">
+        <v>0</v>
       </c>
       <c r="F141" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G141" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H141" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>27</v>
@@ -5016,26 +4446,22 @@
       <c r="C142" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D142" s="4">
-        <v>10</v>
-      </c>
-      <c r="E142" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D142" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E142" s="5">
+        <v>0</v>
       </c>
       <c r="F142" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G142" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H142" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>27</v>
@@ -5043,26 +4469,22 @@
       <c r="C143" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D143" s="4">
-        <v>10</v>
-      </c>
-      <c r="E143" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D143" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E143" s="5">
+        <v>0</v>
       </c>
       <c r="F143" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G143" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H143" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>27</v>
@@ -5070,26 +4492,22 @@
       <c r="C144" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D144" s="4">
-        <v>10</v>
-      </c>
-      <c r="E144" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D144" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E144" s="5">
+        <v>0</v>
       </c>
       <c r="F144" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G144" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H144" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>27</v>
@@ -5097,26 +4515,22 @@
       <c r="C145" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D145" s="4">
-        <v>10</v>
-      </c>
-      <c r="E145" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D145" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E145" s="5">
+        <v>0</v>
       </c>
       <c r="F145" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G145" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H145" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>27</v>
@@ -5124,26 +4538,22 @@
       <c r="C146" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D146" s="4">
-        <v>10</v>
-      </c>
-      <c r="E146" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D146" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E146" s="5">
+        <v>0</v>
       </c>
       <c r="F146" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G146" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H146" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>27</v>
@@ -5151,26 +4561,22 @@
       <c r="C147" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D147" s="4">
-        <v>10</v>
-      </c>
-      <c r="E147" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D147" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E147" s="5">
+        <v>0</v>
       </c>
       <c r="F147" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G147" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H147" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>27</v>
@@ -5178,26 +4584,22 @@
       <c r="C148" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D148" s="4">
-        <v>10</v>
-      </c>
-      <c r="E148" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D148" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E148" s="5">
+        <v>0</v>
       </c>
       <c r="F148" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G148" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H148" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>27</v>
@@ -5205,26 +4607,22 @@
       <c r="C149" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D149" s="4">
-        <v>10</v>
-      </c>
-      <c r="E149" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D149" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E149" s="5">
+        <v>0</v>
       </c>
       <c r="F149" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G149" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H149" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>27</v>
@@ -5232,26 +4630,22 @@
       <c r="C150" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D150" s="4">
-        <v>10</v>
-      </c>
-      <c r="E150" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D150" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E150" s="5">
+        <v>0</v>
       </c>
       <c r="F150" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G150" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H150" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>27</v>
@@ -5259,26 +4653,22 @@
       <c r="C151" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D151" s="4">
-        <v>10</v>
-      </c>
-      <c r="E151" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D151" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E151" s="5">
+        <v>0</v>
       </c>
       <c r="F151" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G151" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H151" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>27</v>
@@ -5286,26 +4676,22 @@
       <c r="C152" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D152" s="4">
-        <v>10</v>
-      </c>
-      <c r="E152" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D152" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E152" s="5">
+        <v>0</v>
       </c>
       <c r="F152" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G152" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H152" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>27</v>
@@ -5313,26 +4699,22 @@
       <c r="C153" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D153" s="4">
-        <v>10</v>
-      </c>
-      <c r="E153" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D153" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E153" s="5">
+        <v>0</v>
       </c>
       <c r="F153" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G153" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H153" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>27</v>
@@ -5340,26 +4722,22 @@
       <c r="C154" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D154" s="4">
-        <v>10</v>
-      </c>
-      <c r="E154" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D154" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E154" s="5">
+        <v>0</v>
       </c>
       <c r="F154" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G154" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H154" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>27</v>
@@ -5367,26 +4745,22 @@
       <c r="C155" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D155" s="4">
-        <v>10</v>
-      </c>
-      <c r="E155" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D155" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E155" s="5">
+        <v>0</v>
       </c>
       <c r="F155" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G155" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H155" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>27</v>
@@ -5394,26 +4768,22 @@
       <c r="C156" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D156" s="4">
-        <v>10</v>
-      </c>
-      <c r="E156" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D156" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E156" s="5">
+        <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G156" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H156" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>27</v>
@@ -5421,26 +4791,22 @@
       <c r="C157" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D157" s="4">
-        <v>10</v>
-      </c>
-      <c r="E157" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D157" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E157" s="5">
+        <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G157" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H157" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>27</v>
@@ -5448,26 +4814,22 @@
       <c r="C158" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D158" s="4">
-        <v>10</v>
-      </c>
-      <c r="E158" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D158" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E158" s="5">
+        <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G158" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H158" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>27</v>
@@ -5475,26 +4837,22 @@
       <c r="C159" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D159" s="4">
-        <v>10</v>
-      </c>
-      <c r="E159" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D159" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E159" s="5">
+        <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G159" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H159" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>27</v>
@@ -5502,26 +4860,22 @@
       <c r="C160" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D160" s="4">
-        <v>10</v>
-      </c>
-      <c r="E160" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D160" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E160" s="5">
+        <v>0</v>
       </c>
       <c r="F160" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G160" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H160" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>27</v>
@@ -5529,26 +4883,22 @@
       <c r="C161" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D161" s="4">
-        <v>10</v>
-      </c>
-      <c r="E161" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D161" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E161" s="5">
+        <v>0</v>
       </c>
       <c r="F161" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G161" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H161" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>27</v>
@@ -5556,26 +4906,22 @@
       <c r="C162" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D162" s="4">
-        <v>10</v>
-      </c>
-      <c r="E162" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D162" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E162" s="5">
+        <v>0</v>
       </c>
       <c r="F162" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G162" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H162" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>27</v>
@@ -5583,26 +4929,22 @@
       <c r="C163" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D163" s="4">
-        <v>10</v>
-      </c>
-      <c r="E163" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D163" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E163" s="5">
+        <v>0</v>
       </c>
       <c r="F163" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G163" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H163" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>27</v>
@@ -5610,26 +4952,22 @@
       <c r="C164" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D164" s="4">
-        <v>10</v>
-      </c>
-      <c r="E164" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D164" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E164" s="5">
+        <v>0</v>
       </c>
       <c r="F164" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G164" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H164" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>27</v>
@@ -5637,26 +4975,22 @@
       <c r="C165" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D165" s="4">
-        <v>10</v>
-      </c>
-      <c r="E165" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D165" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E165" s="5">
+        <v>0</v>
       </c>
       <c r="F165" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G165" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H165" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>27</v>
@@ -5664,26 +4998,22 @@
       <c r="C166" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D166" s="4">
-        <v>10</v>
-      </c>
-      <c r="E166" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D166" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E166" s="5">
+        <v>0</v>
       </c>
       <c r="F166" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G166" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H166" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>27</v>
@@ -5691,26 +5021,22 @@
       <c r="C167" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D167" s="4">
-        <v>10</v>
-      </c>
-      <c r="E167" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D167" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E167" s="5">
+        <v>0</v>
       </c>
       <c r="F167" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G167" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H167" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>27</v>
@@ -5718,26 +5044,22 @@
       <c r="C168" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D168" s="4">
-        <v>10</v>
-      </c>
-      <c r="E168" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D168" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E168" s="5">
+        <v>0</v>
       </c>
       <c r="F168" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G168" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H168" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>27</v>
@@ -5745,26 +5067,22 @@
       <c r="C169" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D169" s="4">
-        <v>10</v>
-      </c>
-      <c r="E169" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D169" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E169" s="5">
+        <v>0</v>
       </c>
       <c r="F169" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G169" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H169" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>27</v>
@@ -5772,26 +5090,22 @@
       <c r="C170" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D170" s="4">
-        <v>10</v>
-      </c>
-      <c r="E170" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D170" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E170" s="5">
+        <v>0</v>
       </c>
       <c r="F170" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G170" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H170" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>27</v>
@@ -5799,26 +5113,22 @@
       <c r="C171" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D171" s="4">
-        <v>10</v>
-      </c>
-      <c r="E171" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D171" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E171" s="5">
+        <v>0</v>
       </c>
       <c r="F171" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G171" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H171" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>27</v>
@@ -5826,26 +5136,22 @@
       <c r="C172" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D172" s="4">
-        <v>10</v>
-      </c>
-      <c r="E172" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D172" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E172" s="5">
+        <v>0</v>
       </c>
       <c r="F172" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G172" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H172" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>27</v>
@@ -5853,26 +5159,22 @@
       <c r="C173" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D173" s="4">
-        <v>10</v>
-      </c>
-      <c r="E173" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D173" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E173" s="5">
+        <v>0</v>
       </c>
       <c r="F173" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G173" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H173" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>27</v>
@@ -5880,26 +5182,22 @@
       <c r="C174" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D174" s="4">
-        <v>10</v>
-      </c>
-      <c r="E174" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D174" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E174" s="5">
+        <v>0</v>
       </c>
       <c r="F174" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G174" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H174" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>27</v>
@@ -5907,26 +5205,22 @@
       <c r="C175" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D175" s="4">
-        <v>10</v>
-      </c>
-      <c r="E175" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D175" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E175" s="5">
+        <v>0</v>
       </c>
       <c r="F175" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G175" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H175" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>27</v>
@@ -5934,26 +5228,22 @@
       <c r="C176" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D176" s="4">
-        <v>10</v>
-      </c>
-      <c r="E176" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D176" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E176" s="5">
+        <v>0</v>
       </c>
       <c r="F176" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G176" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H176" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>27</v>
@@ -5961,26 +5251,22 @@
       <c r="C177" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D177" s="4">
-        <v>10</v>
-      </c>
-      <c r="E177" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D177" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E177" s="5">
+        <v>0</v>
       </c>
       <c r="F177" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G177" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H177" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>27</v>
@@ -5988,26 +5274,22 @@
       <c r="C178" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D178" s="4">
-        <v>10</v>
-      </c>
-      <c r="E178" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D178" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E178" s="5">
+        <v>0</v>
       </c>
       <c r="F178" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G178" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H178" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>27</v>
@@ -6015,26 +5297,22 @@
       <c r="C179" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D179" s="4">
-        <v>10</v>
-      </c>
-      <c r="E179" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D179" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E179" s="5">
+        <v>0</v>
       </c>
       <c r="F179" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G179" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H179" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>27</v>
@@ -6042,26 +5320,22 @@
       <c r="C180" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D180" s="4">
-        <v>10</v>
-      </c>
-      <c r="E180" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D180" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E180" s="5">
+        <v>0</v>
       </c>
       <c r="F180" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G180" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H180" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>27</v>
@@ -6069,26 +5343,22 @@
       <c r="C181" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D181" s="4">
-        <v>10</v>
-      </c>
-      <c r="E181" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D181" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E181" s="5">
+        <v>0</v>
       </c>
       <c r="F181" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G181" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H181" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>27</v>
@@ -6096,26 +5366,22 @@
       <c r="C182" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D182" s="4">
-        <v>10</v>
-      </c>
-      <c r="E182" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D182" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E182" s="5">
+        <v>0</v>
       </c>
       <c r="F182" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G182" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H182" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>27</v>
@@ -6123,26 +5389,22 @@
       <c r="C183" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D183" s="4">
-        <v>10</v>
-      </c>
-      <c r="E183" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D183" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E183" s="5">
+        <v>0</v>
       </c>
       <c r="F183" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G183" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H183" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>27</v>
@@ -6150,26 +5412,22 @@
       <c r="C184" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D184" s="4">
-        <v>10</v>
-      </c>
-      <c r="E184" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D184" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E184" s="5">
+        <v>0</v>
       </c>
       <c r="F184" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G184" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H184" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>27</v>
@@ -6177,26 +5435,22 @@
       <c r="C185" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D185" s="4">
-        <v>10</v>
-      </c>
-      <c r="E185" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D185" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E185" s="5">
+        <v>0</v>
       </c>
       <c r="F185" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G185" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H185" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>27</v>
@@ -6204,26 +5458,22 @@
       <c r="C186" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D186" s="4">
-        <v>10</v>
-      </c>
-      <c r="E186" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D186" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E186" s="5">
+        <v>0</v>
       </c>
       <c r="F186" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G186" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H186" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>27</v>
@@ -6231,26 +5481,22 @@
       <c r="C187" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D187" s="4">
-        <v>10</v>
-      </c>
-      <c r="E187" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D187" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E187" s="5">
+        <v>0</v>
       </c>
       <c r="F187" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G187" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H187" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>27</v>
@@ -6258,26 +5504,22 @@
       <c r="C188" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D188" s="4">
-        <v>10</v>
-      </c>
-      <c r="E188" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D188" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E188" s="5">
+        <v>0</v>
       </c>
       <c r="F188" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G188" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H188" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>27</v>
@@ -6285,26 +5527,22 @@
       <c r="C189" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D189" s="4">
-        <v>10</v>
-      </c>
-      <c r="E189" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D189" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E189" s="5">
+        <v>0</v>
       </c>
       <c r="F189" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G189" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H189" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>27</v>
@@ -6312,26 +5550,22 @@
       <c r="C190" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D190" s="4">
-        <v>10</v>
-      </c>
-      <c r="E190" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D190" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E190" s="5">
+        <v>0</v>
       </c>
       <c r="F190" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G190" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H190" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>27</v>
@@ -6339,26 +5573,22 @@
       <c r="C191" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D191" s="4">
-        <v>10</v>
-      </c>
-      <c r="E191" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D191" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E191" s="5">
+        <v>0</v>
       </c>
       <c r="F191" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G191" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H191" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>27</v>
@@ -6366,26 +5596,22 @@
       <c r="C192" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D192" s="4">
-        <v>10</v>
-      </c>
-      <c r="E192" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D192" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E192" s="5">
+        <v>0</v>
       </c>
       <c r="F192" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G192" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H192" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>27</v>
@@ -6393,26 +5619,22 @@
       <c r="C193" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D193" s="4">
-        <v>10</v>
-      </c>
-      <c r="E193" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D193" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E193" s="5">
+        <v>0</v>
       </c>
       <c r="F193" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G193" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H193" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>27</v>
@@ -6420,53 +5642,45 @@
       <c r="C194" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D194" s="4">
-        <v>10</v>
-      </c>
-      <c r="E194" s="11">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
+      <c r="D194" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E194" s="5">
+        <v>0</v>
       </c>
       <c r="F194" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G194" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H194" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B195" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C195" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C195" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D195" s="4">
-        <v>10</v>
+      <c r="D195" s="12">
+        <v>0.92903000000000002</v>
       </c>
       <c r="E195" s="13">
-        <f t="shared" si="2"/>
-        <v>0.92903000000000002</v>
-      </c>
-      <c r="F195" s="14">
-        <v>0</v>
-      </c>
-      <c r="G195" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="H195" s="14">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F195" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G195" s="13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>27</v>
@@ -6474,26 +5688,22 @@
       <c r="C196" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D196" s="4">
-        <v>10</v>
-      </c>
-      <c r="E196" s="11">
-        <f t="shared" ref="E196:E225" si="3">D196*0.092903</f>
-        <v>0.92903000000000002</v>
+      <c r="D196" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E196" s="5">
+        <v>0</v>
       </c>
       <c r="F196" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G196" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H196" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>27</v>
@@ -6501,26 +5711,22 @@
       <c r="C197" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D197" s="4">
-        <v>10</v>
-      </c>
-      <c r="E197" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D197" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E197" s="5">
+        <v>0</v>
       </c>
       <c r="F197" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G197" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H197" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>27</v>
@@ -6528,26 +5734,22 @@
       <c r="C198" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D198" s="4">
-        <v>10</v>
-      </c>
-      <c r="E198" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D198" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E198" s="5">
+        <v>0</v>
       </c>
       <c r="F198" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G198" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H198" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>27</v>
@@ -6555,26 +5757,22 @@
       <c r="C199" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D199" s="4">
-        <v>10</v>
-      </c>
-      <c r="E199" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D199" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E199" s="5">
+        <v>0</v>
       </c>
       <c r="F199" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G199" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H199" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>27</v>
@@ -6582,53 +5780,45 @@
       <c r="C200" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D200" s="4">
-        <v>10</v>
-      </c>
-      <c r="E200" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D200" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E200" s="5">
+        <v>0</v>
       </c>
       <c r="F200" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G200" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H200" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B201" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C201" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C201" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D201" s="4">
-        <v>10</v>
+      <c r="D201" s="12">
+        <v>0.92903000000000002</v>
       </c>
       <c r="E201" s="13">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
-      </c>
-      <c r="F201" s="14">
-        <v>0</v>
-      </c>
-      <c r="G201" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="H201" s="14">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F201" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G201" s="13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>27</v>
@@ -6636,26 +5826,22 @@
       <c r="C202" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D202" s="4">
-        <v>10</v>
-      </c>
-      <c r="E202" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D202" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E202" s="5">
+        <v>0</v>
       </c>
       <c r="F202" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G202" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H202" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>27</v>
@@ -6663,26 +5849,22 @@
       <c r="C203" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D203" s="4">
-        <v>10</v>
-      </c>
-      <c r="E203" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D203" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E203" s="5">
+        <v>0</v>
       </c>
       <c r="F203" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G203" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H203" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>27</v>
@@ -6690,26 +5872,22 @@
       <c r="C204" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D204" s="4">
-        <v>10</v>
-      </c>
-      <c r="E204" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D204" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E204" s="5">
+        <v>0</v>
       </c>
       <c r="F204" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G204" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H204" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>27</v>
@@ -6717,26 +5895,22 @@
       <c r="C205" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D205" s="4">
-        <v>10</v>
-      </c>
-      <c r="E205" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D205" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E205" s="5">
+        <v>0</v>
       </c>
       <c r="F205" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G205" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H205" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>27</v>
@@ -6744,26 +5918,22 @@
       <c r="C206" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D206" s="4">
-        <v>10</v>
-      </c>
-      <c r="E206" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D206" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E206" s="5">
+        <v>0</v>
       </c>
       <c r="F206" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G206" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H206" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>27</v>
@@ -6771,26 +5941,22 @@
       <c r="C207" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D207" s="4">
-        <v>10</v>
-      </c>
-      <c r="E207" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D207" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E207" s="5">
+        <v>0</v>
       </c>
       <c r="F207" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G207" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H207" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>27</v>
@@ -6798,53 +5964,45 @@
       <c r="C208" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D208" s="4">
-        <v>10</v>
-      </c>
-      <c r="E208" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D208" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E208" s="5">
+        <v>0</v>
       </c>
       <c r="F208" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G208" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H208" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B209" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C209" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C209" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="D209" s="4">
-        <v>10</v>
+      <c r="D209" s="12">
+        <v>0.92903000000000002</v>
       </c>
       <c r="E209" s="13">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
-      </c>
-      <c r="F209" s="14">
-        <v>0</v>
-      </c>
-      <c r="G209" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="H209" s="14">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F209" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G209" s="13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>27</v>
@@ -6852,26 +6010,22 @@
       <c r="C210" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D210" s="4">
-        <v>10</v>
-      </c>
-      <c r="E210" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D210" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E210" s="5">
+        <v>0</v>
       </c>
       <c r="F210" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G210" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H210" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>27</v>
@@ -6879,26 +6033,22 @@
       <c r="C211" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D211" s="4">
-        <v>10</v>
-      </c>
-      <c r="E211" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D211" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E211" s="5">
+        <v>0</v>
       </c>
       <c r="F211" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G211" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H211" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>27</v>
@@ -6906,26 +6056,22 @@
       <c r="C212" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D212" s="4">
-        <v>10</v>
-      </c>
-      <c r="E212" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D212" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E212" s="5">
+        <v>0</v>
       </c>
       <c r="F212" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G212" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H212" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>27</v>
@@ -6933,26 +6079,22 @@
       <c r="C213" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D213" s="4">
-        <v>10</v>
-      </c>
-      <c r="E213" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D213" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E213" s="5">
+        <v>0</v>
       </c>
       <c r="F213" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G213" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H213" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>27</v>
@@ -6960,26 +6102,22 @@
       <c r="C214" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D214" s="4">
-        <v>10</v>
-      </c>
-      <c r="E214" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D214" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E214" s="5">
+        <v>0</v>
       </c>
       <c r="F214" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G214" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H214" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>27</v>
@@ -6987,26 +6125,22 @@
       <c r="C215" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D215" s="4">
-        <v>10</v>
-      </c>
-      <c r="E215" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D215" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E215" s="5">
+        <v>0</v>
       </c>
       <c r="F215" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G215" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H215" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>27</v>
@@ -7014,26 +6148,22 @@
       <c r="C216" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D216" s="4">
-        <v>10</v>
-      </c>
-      <c r="E216" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D216" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E216" s="5">
+        <v>0</v>
       </c>
       <c r="F216" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G216" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H216" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>27</v>
@@ -7041,26 +6171,22 @@
       <c r="C217" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D217" s="4">
-        <v>10</v>
-      </c>
-      <c r="E217" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D217" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E217" s="5">
+        <v>0</v>
       </c>
       <c r="F217" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G217" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H217" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>27</v>
@@ -7068,26 +6194,22 @@
       <c r="C218" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D218" s="4">
-        <v>10</v>
-      </c>
-      <c r="E218" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D218" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E218" s="5">
+        <v>0</v>
       </c>
       <c r="F218" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G218" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H218" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>27</v>
@@ -7095,26 +6217,22 @@
       <c r="C219" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D219" s="4">
-        <v>10</v>
-      </c>
-      <c r="E219" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D219" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E219" s="5">
+        <v>0</v>
       </c>
       <c r="F219" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G219" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H219" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>27</v>
@@ -7122,26 +6240,22 @@
       <c r="C220" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D220" s="4">
-        <v>10</v>
-      </c>
-      <c r="E220" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D220" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E220" s="5">
+        <v>0</v>
       </c>
       <c r="F220" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G220" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H220" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>27</v>
@@ -7149,26 +6263,22 @@
       <c r="C221" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D221" s="4">
-        <v>10</v>
-      </c>
-      <c r="E221" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D221" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E221" s="5">
+        <v>0</v>
       </c>
       <c r="F221" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G221" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H221" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>27</v>
@@ -7176,26 +6286,22 @@
       <c r="C222" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D222" s="4">
-        <v>10</v>
-      </c>
-      <c r="E222" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D222" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E222" s="5">
+        <v>0</v>
       </c>
       <c r="F222" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G222" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H222" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>27</v>
@@ -7203,26 +6309,22 @@
       <c r="C223" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D223" s="4">
-        <v>10</v>
-      </c>
-      <c r="E223" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D223" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E223" s="5">
+        <v>0</v>
       </c>
       <c r="F223" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G223" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H223" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>27</v>
@@ -7230,26 +6332,22 @@
       <c r="C224" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D224" s="4">
-        <v>10</v>
-      </c>
-      <c r="E224" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D224" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E224" s="5">
+        <v>0</v>
       </c>
       <c r="F224" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G224" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H224" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>27</v>
@@ -7257,20 +6355,16 @@
       <c r="C225" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D225" s="4">
-        <v>10</v>
-      </c>
-      <c r="E225" s="11">
-        <f t="shared" si="3"/>
-        <v>0.92903000000000002</v>
+      <c r="D225" s="10">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="E225" s="5">
+        <v>0</v>
       </c>
       <c r="F225" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G225" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H225" s="5">
         <v>0.6</v>
       </c>
     </row>
